--- a/data/trans_camb/P1001-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P1001-Provincia-trans_camb.xlsx
@@ -632,7 +632,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -642,12 +642,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-7,58</t>
+          <t>-7,71</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>9,36</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -657,12 +657,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-8,4</t>
+          <t>-8,44</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>4,65</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-7,96</t>
+          <t>-8,08</t>
         </is>
       </c>
     </row>
@@ -685,7 +685,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,01; 5,16</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -695,12 +695,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-12,26; -4,02</t>
+          <t>-12,29; -4,14</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,7; 16,11</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,12 +710,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-13,35; -3,78</t>
+          <t>-13,36; -3,78</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,37; 8,88</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-11,39; -5,34</t>
+          <t>-11,56; -5,46</t>
         </is>
       </c>
     </row>
@@ -738,7 +738,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,47%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -748,12 +748,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-74,08%</t>
+          <t>-75,39%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>77,63%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -763,12 +763,12 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-69,69%</t>
+          <t>-70,0%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>41,84%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-71,56%</t>
+          <t>-72,6%</t>
         </is>
       </c>
     </row>
@@ -791,7 +791,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,49; 66,39</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -801,12 +801,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-90,47; -47,01</t>
+          <t>-91,83; -50,26</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>15,81; 170,43</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -816,12 +816,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-83,8; -41,12</t>
+          <t>-83,94; -41,66</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,69; 91,17</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-82,65; -56,1</t>
+          <t>-83,64; -58,01</t>
         </is>
       </c>
     </row>
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,34</t>
+          <t>-0,6</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-3,99</t>
+          <t>-4,15</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-2,15</t>
+          <t>-2,42</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,28; 3,41</t>
+          <t>-4,69; 3,06</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-8,41; -0,06</t>
+          <t>-8,49; -0,25</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-4,81; 0,61</t>
+          <t>-5,09; 0,31</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-4,17%</t>
+          <t>-7,25%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-26,48%</t>
+          <t>-27,51%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-18,39%</t>
+          <t>-20,63%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-40,91; 54,09</t>
+          <t>-43,4; 48,01</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-47,24; -0,66</t>
+          <t>-47,79; -2,08</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-36,84; 6,2</t>
+          <t>-38,99; 3,37</t>
         </is>
       </c>
     </row>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>2,83</t>
+          <t>2,73</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>4,68</t>
+          <t>4,63</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>3,86</t>
+          <t>3,74</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,14; 5,52</t>
+          <t>-0,19; 5,42</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,57; 7,83</t>
+          <t>1,54; 7,77</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1,85; 6,16</t>
+          <t>1,72; 5,96</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>119,03%</t>
+          <t>114,79%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>126,65%</t>
+          <t>125,08%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>126,21%</t>
+          <t>122,42%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-16,41; 455,89</t>
+          <t>-18,76; 448,17</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>25,82; 371,44</t>
+          <t>24,85; 362,51</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>41,98; 287,62</t>
+          <t>38,98; 280,71</t>
         </is>
       </c>
     </row>
@@ -1280,7 +1280,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>4,95</t>
+          <t>2,84</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1290,12 +1290,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>3,31</t>
+          <t>3,28</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>13,69</t>
+          <t>13,66</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1305,12 +1305,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>3,23</t>
+          <t>1,38</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>9,32</t>
+          <t>8,36</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>3,58</t>
+          <t>2,61</t>
         </is>
       </c>
     </row>
@@ -1333,7 +1333,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,92; 7,48</t>
+          <t>0,09; 5,88</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -1343,12 +1343,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,13; 6,53</t>
+          <t>0,07; 6,52</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>9,26; 17,97</t>
+          <t>9,1; 18,79</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1358,12 +1358,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 7,7</t>
+          <t>-3,09; 5,65</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>7,04; 12,15</t>
+          <t>5,45; 11,3</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>1,08; 6,62</t>
+          <t>-0,14; 5,75</t>
         </is>
       </c>
     </row>
@@ -1386,7 +1386,7 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>186,71%</t>
+          <t>107,18%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -1396,12 +1396,12 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>124,95%</t>
+          <t>123,67%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>178,36%</t>
+          <t>177,91%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1411,12 +1411,12 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>42,09%</t>
+          <t>17,98%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>178,87%</t>
+          <t>160,54%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>68,79%</t>
+          <t>50,15%</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>28,72; 465,01</t>
+          <t>-6,09; 402,37</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -1449,12 +1449,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-9,08; 426,97</t>
+          <t>-9,03; 426,43</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>90,03; 323,33</t>
+          <t>92,31; 332,2</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1464,12 +1464,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-5,52; 140,88</t>
+          <t>-36,44; 89,82</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>105,76; 311,12</t>
+          <t>83,03; 284,25</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>17,17; 165,28</t>
+          <t>-2,29; 138,79</t>
         </is>
       </c>
     </row>
@@ -1506,7 +1506,7 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-3,45</t>
+          <t>-3,49</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>2,45</t>
+          <t>2,51</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1559,7 +1559,7 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-7,75; -0,09</t>
+          <t>-7,78; -0,13</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-2,24; 6,73</t>
+          <t>-2,14; 6,94</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-3,35; 2,63</t>
+          <t>-3,34; 2,61</t>
         </is>
       </c>
     </row>
@@ -1612,7 +1612,7 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-52,46%</t>
+          <t>-53,01%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>34,28%</t>
+          <t>35,14%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-3,53%</t>
+          <t>-3,51%</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-79,5; 8,51</t>
+          <t>-79,75; 7,71</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
@@ -1680,7 +1680,7 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-22,73; 148,01</t>
+          <t>-21,99; 147,26</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
@@ -1695,7 +1695,7 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-38,13; 51,55</t>
+          <t>-37,86; 52,24</t>
         </is>
       </c>
     </row>
@@ -1722,7 +1722,7 @@
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>4,45</t>
+          <t>4,33</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
@@ -1752,7 +1752,7 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>4,19</t>
+          <t>4,1</t>
         </is>
       </c>
     </row>
@@ -1775,7 +1775,7 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>1,95; 7,28</t>
+          <t>1,82; 7,08</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
@@ -1790,7 +1790,7 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>0,45; 7,23</t>
+          <t>0,44; 7,18</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
@@ -1805,7 +1805,7 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>1,98; 6,24</t>
+          <t>1,89; 6,14</t>
         </is>
       </c>
     </row>
@@ -1828,7 +1828,7 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>333,47%</t>
+          <t>324,22%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>88,19%</t>
+          <t>88,26%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
@@ -1858,7 +1858,7 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>142,45%</t>
+          <t>139,39%</t>
         </is>
       </c>
     </row>
@@ -1881,7 +1881,7 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>54,26; 1457,48</t>
+          <t>50,45; 1391,14</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
@@ -1896,7 +1896,7 @@
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>4,08; 243,13</t>
+          <t>3,8; 242,81</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
@@ -1911,7 +1911,7 @@
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>43,74; 325,24</t>
+          <t>41,48; 322,51</t>
         </is>
       </c>
     </row>
@@ -1938,7 +1938,7 @@
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>3,38</t>
+          <t>3,27</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
@@ -1953,7 +1953,7 @@
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>2,86</t>
+          <t>1,11</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
@@ -1968,7 +1968,7 @@
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>3,34</t>
+          <t>2,35</t>
         </is>
       </c>
     </row>
@@ -1991,7 +1991,7 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>0,59; 7,25</t>
+          <t>0,44; 7,11</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
@@ -2006,7 +2006,7 @@
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-2,81; 6,97</t>
+          <t>-6,18; 5,95</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
@@ -2021,7 +2021,7 @@
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>0,39; 5,76</t>
+          <t>-1,94; 5,04</t>
         </is>
       </c>
     </row>
@@ -2044,7 +2044,7 @@
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>59,89%</t>
+          <t>57,95%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
@@ -2059,7 +2059,7 @@
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>27,25%</t>
+          <t>10,61%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
@@ -2074,7 +2074,7 @@
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>41,18%</t>
+          <t>28,99%</t>
         </is>
       </c>
     </row>
@@ -2097,7 +2097,7 @@
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>6,9; 160,41</t>
+          <t>4,39; 159,51</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
@@ -2112,7 +2112,7 @@
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-20,66; 75,95</t>
+          <t>-48,77; 63,89</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
@@ -2127,7 +2127,7 @@
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>4,94; 80,49</t>
+          <t>-20,74; 68,14</t>
         </is>
       </c>
     </row>
@@ -2154,7 +2154,7 @@
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>-2,67</t>
+          <t>-3,82</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
@@ -2169,7 +2169,7 @@
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>6,47</t>
+          <t>6,5</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
@@ -2184,7 +2184,7 @@
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>1,91</t>
+          <t>0,56</t>
         </is>
       </c>
     </row>
@@ -2207,7 +2207,7 @@
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-5,57; -0,32</t>
+          <t>-7,7; -1,34</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
@@ -2222,7 +2222,7 @@
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>3,08; 9,71</t>
+          <t>3,19; 9,6</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
@@ -2237,7 +2237,7 @@
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-0,33; 4,07</t>
+          <t>-3,88; 3,29</t>
         </is>
       </c>
     </row>
@@ -2260,7 +2260,7 @@
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>-32,68%</t>
+          <t>-46,83%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
@@ -2275,7 +2275,7 @@
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>67,0%</t>
+          <t>67,28%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
@@ -2290,7 +2290,7 @@
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>21,36%</t>
+          <t>6,25%</t>
         </is>
       </c>
     </row>
@@ -2313,7 +2313,7 @@
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-55,69; -4,0</t>
+          <t>-78,55; -19,7</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
@@ -2328,7 +2328,7 @@
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>26,4; 116,74</t>
+          <t>26,6; 114,79</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
@@ -2343,7 +2343,7 @@
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-3,4; 53,12</t>
+          <t>-37,11; 39,19</t>
         </is>
       </c>
     </row>
@@ -2370,7 +2370,7 @@
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>0,16</t>
+          <t>-0,3</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
@@ -2385,7 +2385,7 @@
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>2,2</t>
+          <t>1,37</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
@@ -2400,7 +2400,7 @@
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>1,31</t>
+          <t>0,58</t>
         </is>
       </c>
     </row>
@@ -2423,7 +2423,7 @@
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 1,4</t>
+          <t>-1,7; 1,05</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
@@ -2438,7 +2438,7 @@
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>0,6; 3,6</t>
+          <t>-0,77; 2,88</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
@@ -2453,7 +2453,7 @@
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>0,38; 2,43</t>
+          <t>-0,7; 1,72</t>
         </is>
       </c>
     </row>
@@ -2476,7 +2476,7 @@
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>2,61%</t>
+          <t>-4,9%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
@@ -2491,7 +2491,7 @@
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>23,34%</t>
+          <t>14,59%</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
@@ -2506,7 +2506,7 @@
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>16,89%</t>
+          <t>7,53%</t>
         </is>
       </c>
     </row>
@@ -2529,7 +2529,7 @@
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-15,45; 25,74</t>
+          <t>-26,36; 19,21</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
@@ -2544,7 +2544,7 @@
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>5,93; 40,75</t>
+          <t>-7,14; 32,66</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
@@ -2559,7 +2559,7 @@
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>4,75; 33,6</t>
+          <t>-8,81; 23,17</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P1001-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P1001-Provincia-trans_camb.xlsx
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-5,01; 5,16</t>
+          <t>-4,74; 5,77</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,1; 11,25</t>
+          <t>-0,19; 11,67</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-12,29; -4,14</t>
+          <t>-12,48; -3,78</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,7; 16,11</t>
+          <t>3,02; 15,97</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>6,7; 20,5</t>
+          <t>7,09; 20,06</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-13,36; -3,78</t>
+          <t>-13,61; -4,01</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,37; 8,88</t>
+          <t>0,44; 8,84</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>5,65; 14,19</t>
+          <t>5,28; 14,62</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-11,56; -5,46</t>
+          <t>-11,1; -5,08</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-39,49; 66,39</t>
+          <t>-37,97; 79,09</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 150,48</t>
+          <t>-2,26; 154,05</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-91,83; -50,26</t>
+          <t>-90,08; -45,84</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>15,81; 170,43</t>
+          <t>18,86; 172,3</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>42,11; 229,22</t>
+          <t>44,34; 218,13</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-83,94; -41,66</t>
+          <t>-83,08; -41,28</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,69; 91,17</t>
+          <t>2,44; 95,61</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>42,61; 151,15</t>
+          <t>39,14; 156,76</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-83,64; -58,01</t>
+          <t>-83,24; -54,4</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,22; 3,36</t>
+          <t>-3,71; 3,47</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-8,59; -2,63</t>
+          <t>-8,33; -2,49</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,69; 3,06</t>
+          <t>-4,15; 3,03</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,46; 4,79</t>
+          <t>-4,66; 4,51</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-9,86; -1,33</t>
+          <t>-9,85; -1,47</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-8,49; -0,25</t>
+          <t>-8,16; 0,19</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-3,08; 2,87</t>
+          <t>-3,05; 3,06</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-8,25; -2,78</t>
+          <t>-8,18; -2,96</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-5,09; 0,31</t>
+          <t>-5,29; 0,28</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-40,66; 52,39</t>
+          <t>-38,5; 58,09</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-81,54; -38,27</t>
+          <t>-81,37; -35,15</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-43,4; 48,01</t>
+          <t>-43,37; 46,5</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-26,24; 38,18</t>
+          <t>-27,07; 35,69</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-57,83; -9,59</t>
+          <t>-55,73; -10,71</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-47,79; -2,08</t>
+          <t>-46,88; 1,56</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-22,88; 27,69</t>
+          <t>-23,06; 30,01</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-62,25; -26,49</t>
+          <t>-61,65; -28,55</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-38,99; 3,37</t>
+          <t>-39,05; 3,26</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,03; 6,21</t>
+          <t>0,04; 6,07</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,61; 2,15</t>
+          <t>-2,69; 1,88</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,19; 5,42</t>
+          <t>0,08; 5,62</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>3,38; 11,37</t>
+          <t>3,55; 11,44</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,41; 5,22</t>
+          <t>-1,29; 5,08</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,54; 7,77</t>
+          <t>1,43; 7,66</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>2,75; 7,59</t>
+          <t>2,68; 7,74</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,22; 2,85</t>
+          <t>-1,23; 2,95</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1,72; 5,96</t>
+          <t>1,75; 5,93</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-9,3; 563,93</t>
+          <t>-13,23; 552,36</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-73,25; 200,31</t>
+          <t>-72,73; 185,01</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-18,76; 448,17</t>
+          <t>-10,35; 495,4</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>49,09; 467,49</t>
+          <t>62,76; 504,01</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-32,56; 228,32</t>
+          <t>-29,28; 213,42</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>24,85; 362,51</t>
+          <t>19,21; 325,63</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>68,27; 375,96</t>
+          <t>57,8; 361,3</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-33,66; 136,33</t>
+          <t>-31,88; 172,03</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>38,98; 280,71</t>
+          <t>39,86; 294,27</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,09; 5,88</t>
+          <t>-0,01; 5,98</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>3,09; 10,02</t>
+          <t>3,19; 9,67</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,07; 6,52</t>
+          <t>0,14; 6,63</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>9,1; 18,79</t>
+          <t>8,22; 18,18</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>8,45; 18,41</t>
+          <t>7,73; 17,95</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-3,09; 5,65</t>
+          <t>-3,15; 5,49</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>5,45; 11,3</t>
+          <t>5,58; 11,75</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>6,66; 13,08</t>
+          <t>6,63; 13,09</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-0,14; 5,75</t>
+          <t>-0,15; 5,55</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-6,09; 402,37</t>
+          <t>-8,6; 419,34</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>58,29; 674,38</t>
+          <t>73,76; 635,08</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-9,03; 426,43</t>
+          <t>-8,35; 409,6</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>92,31; 332,2</t>
+          <t>83,12; 307,86</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>84,4; 329,49</t>
+          <t>76,44; 310,48</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-36,44; 89,82</t>
+          <t>-35,13; 88,87</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>83,03; 284,25</t>
+          <t>83,79; 294,16</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>101,77; 324,5</t>
+          <t>101,13; 318,41</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-2,29; 138,79</t>
+          <t>-3,1; 123,72</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-6,08; 2,76</t>
+          <t>-6,17; 3,02</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-6,41; 2,14</t>
+          <t>-5,95; 2,71</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-7,78; -0,13</t>
+          <t>-7,55; 0,03</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>4,61; 17,76</t>
+          <t>4,72; 17,63</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-5,13; 5,09</t>
+          <t>-4,45; 5,42</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-2,14; 6,94</t>
+          <t>-2,68; 6,97</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0,99; 8,64</t>
+          <t>0,87; 8,67</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-4,36; 2,67</t>
+          <t>-4,11; 2,16</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-3,34; 2,61</t>
+          <t>-3,73; 2,34</t>
         </is>
       </c>
     </row>
@@ -1655,54 +1655,54 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-69,64; 72,13</t>
+          <t>-69,33; 72,34</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-69,88; 55,34</t>
+          <t>-69,83; 69,99</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-79,75; 7,71</t>
+          <t>-78,2; 22,2</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>41,34; 360,44</t>
+          <t>41,14; 377,07</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-51,62; 113,32</t>
+          <t>-51,27; 128,28</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-21,99; 147,26</t>
+          <t>-27,1; 158,31</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>7,6; 168,96</t>
+          <t>8,91; 172,17</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-47,32; 51,39</t>
+          <t>-46,67; 40,15</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-37,86; 52,24</t>
+          <t>-40,65; 48,31</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>3,46; 11,32</t>
+          <t>3,72; 10,9</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>2,8; 9,71</t>
+          <t>2,71; 9,67</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>1,82; 7,08</t>
+          <t>1,95; 7,36</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>2,45; 11,28</t>
+          <t>2,52; 12,23</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>4,22; 14,65</t>
+          <t>4,19; 14,78</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>0,44; 7,18</t>
+          <t>0,01; 7,07</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>4,04; 9,82</t>
+          <t>3,88; 9,52</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>4,88; 11,1</t>
+          <t>4,62; 11,08</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>1,89; 6,14</t>
+          <t>2,03; 6,15</t>
         </is>
       </c>
     </row>
@@ -1871,54 +1871,54 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>101,97; 2092,33</t>
+          <t>107,69; 2129,17</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>87,98; 2118,82</t>
+          <t>71,2; 1770,44</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>50,45; 1391,14</t>
+          <t>49,25; 1486,92</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>29,45; 375,62</t>
+          <t>32,81; 430,55</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>56,36; 505,49</t>
+          <t>58,58; 530,53</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>3,8; 242,81</t>
+          <t>-8,07; 261,22</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>99,39; 494,04</t>
+          <t>82,3; 474,36</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>116,82; 541,2</t>
+          <t>98,65; 529,18</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>41,48; 322,51</t>
+          <t>41,85; 306,6</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-3,27; 1,72</t>
+          <t>-2,98; 2,11</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-1,97; 3,62</t>
+          <t>-1,72; 3,84</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>0,44; 7,11</t>
+          <t>0,03; 6,75</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-5,57; 0,98</t>
+          <t>-5,83; 0,88</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-1,18; 6,0</t>
+          <t>-0,9; 5,94</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-6,18; 5,95</t>
+          <t>-6,1; 6,03</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-3,7; 0,7</t>
+          <t>-3,71; 0,4</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 3,87</t>
+          <t>-0,59; 3,97</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-1,94; 5,04</t>
+          <t>-2,11; 4,93</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-46,36; 39,85</t>
+          <t>-43,15; 50,99</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-31,54; 82,55</t>
+          <t>-25,83; 88,69</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>4,39; 159,51</t>
+          <t>-2,23; 144,2</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-45,2; 11,11</t>
+          <t>-46,02; 11,89</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-9,99; 69,79</t>
+          <t>-7,74; 66,79</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-48,77; 63,89</t>
+          <t>-49,47; 63,24</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-40,05; 12,29</t>
+          <t>-39,02; 6,44</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-7,68; 56,51</t>
+          <t>-7,24; 55,07</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-20,74; 68,14</t>
+          <t>-22,51; 67,86</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-2,32; 3,58</t>
+          <t>-2,35; 3,63</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-6,63; -1,68</t>
+          <t>-6,67; -1,61</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-7,7; -1,34</t>
+          <t>-7,71; -1,24</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>2,79; 9,56</t>
+          <t>3,01; 9,94</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-4,81; 1,75</t>
+          <t>-4,55; 1,32</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>3,19; 9,6</t>
+          <t>2,86; 9,68</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>1,49; 6,09</t>
+          <t>1,5; 6,14</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>-4,73; -0,9</t>
+          <t>-4,7; -0,79</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-3,88; 3,29</t>
+          <t>-3,86; 2,93</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-24,16; 51,9</t>
+          <t>-24,41; 53,75</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-67,48; -21,62</t>
+          <t>-67,25; -22,11</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-78,55; -19,7</t>
+          <t>-79,82; -17,46</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>23,97; 115,95</t>
+          <t>27,24; 123,91</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-42,63; 23,5</t>
+          <t>-40,7; 15,42</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>26,6; 114,79</t>
+          <t>24,81; 122,08</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>15,01; 75,96</t>
+          <t>14,69; 78,0</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>-46,74; -11,17</t>
+          <t>-46,78; -9,88</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-37,11; 39,19</t>
+          <t>-36,56; 35,6</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>-0,16; 2,34</t>
+          <t>-0,18; 2,44</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>-1,19; 1,11</t>
+          <t>-1,13; 1,14</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-1,7; 1,05</t>
+          <t>-1,76; 0,98</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>3,6; 6,64</t>
+          <t>3,76; 6,87</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>1,19; 4,4</t>
+          <t>1,33; 4,28</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 2,88</t>
+          <t>-0,78; 2,87</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>2,15; 4,22</t>
+          <t>2,2; 4,23</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>0,49; 2,34</t>
+          <t>0,5; 2,46</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>-0,7; 1,72</t>
+          <t>-0,7; 1,68</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>-2,44; 44,0</t>
+          <t>-2,9; 44,46</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>-18,07; 21,52</t>
+          <t>-17,67; 21,42</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-26,36; 19,21</t>
+          <t>-26,25; 17,42</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>35,14; 75,35</t>
+          <t>37,5; 79,08</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>11,89; 51,67</t>
+          <t>12,65; 49,13</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>-7,14; 32,66</t>
+          <t>-8,09; 32,27</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>25,88; 58,26</t>
+          <t>26,84; 57,87</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>6,0; 32,22</t>
+          <t>6,11; 33,39</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>-8,81; 23,17</t>
+          <t>-8,69; 22,98</t>
         </is>
       </c>
     </row>
